--- a/biology/Botanique/Kickxia_spuria/Kickxia_spuria.xlsx
+++ b/biology/Botanique/Kickxia_spuria/Kickxia_spuria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fausse Velvote ou Linaire bâtarde,  Kickxia spuria est une plante herbacée annuelle de la famille des Scrophulariaceae, ou des Plantaginaceae selon la classification phylogénétique orignaire de d'Europe occidentale et centrale.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Antirrhinum spurium L.
 Elatinoides spuria (L.) Wettst.
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante rampante aux tiges filiformes longues de 10 à 30 cm.
-Les fleurs situées sur les pédoncules très fins et sont bicolores, la lèvre supérieure est pourpre et inférieure jaune franc [1]
+Les fleurs situées sur les pédoncules très fins et sont bicolores, la lèvre supérieure est pourpre et inférieure jaune franc 
 Les feuilles sont ovales arrondies, poilues, disposées d'une façon caractéristique tout au long de la tige.
 			Détail des feuilles
 			Fleur
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sub-méditerranéenne, depuis la France jusqu'au Caucase.
 </t>
